--- a/wristband/v4/ban_res_test.xlsx
+++ b/wristband/v4/ban_res_test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\wristband\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5462482F-B176-424E-B8A8-809DE783A6F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D577A60-E25D-43D3-8814-2C4155DEE124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="random" sheetId="2" r:id="rId1"/>
+    <sheet name="random" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1414,5 +1414,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>